--- a/results/I3_N5_M3_T30_C100_DepCentral_s4_P4_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s4_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384127476</v>
+        <v>2085.37176808761</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.33463841274267</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.363991948845645</v>
+        <v>12.35046801905277</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.363991948845645</v>
+        <v>4.986545292741899</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.920000000005</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.61</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -766,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -879,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -940,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -948,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -956,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>24.77463816779881</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.384048268047589</v>
+        <v>17.96987353846196</v>
       </c>
     </row>
     <row r="7">
@@ -972,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>12.46902814888773</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.81602556806575</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -988,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.82590537679314</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -996,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.38078477376724</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,10 +1034,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1059,10 +1048,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1073,10 +1062,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1084,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1098,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,12 +1104,194 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1223,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.53</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.89</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.45</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>117.09</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.24</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>111.9900000000004</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.0450000000004</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>115.3250000000004</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>112.3300000000004</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>110.3950000000004</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1498,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.9900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>117.0450000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.3250000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>112.3300000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>110.3950000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1608,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>108.53</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>115.89</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>114.45</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>117.09</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>110.24</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.995000000000083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1710,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.510000000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1721,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.665000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1732,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.505000000000077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.99000000000042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1765,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.04500000000045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1776,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.32500000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1787,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.33000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1798,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.39500000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1809,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.530000000000001</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -1820,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.89</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
@@ -1831,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>14.45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -1842,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>17.09</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
@@ -1853,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.24000000000001</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1911,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1933,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1944,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1955,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1966,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1977,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1988,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1999,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2010,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2021,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2032,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2043,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2054,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2076,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2087,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2109,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2120,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2131,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2142,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2153,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2164,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2376,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2216,7 +2387,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2227,7 +2398,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2238,7 +2409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2252,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2260,10 +2431,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2271,10 +2442,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2282,10 +2453,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2293,10 +2464,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2307,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2315,10 +2486,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2326,10 +2497,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2337,10 +2508,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2348,12 +2519,67 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
